--- a/data/batiment.xlsx
+++ b/data/batiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19240" tabRatio="500" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Fabrique de lanceur" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Base de lancement" sheetId="10" r:id="rId10"/>
     <sheet name="Bureau de relation gouvernement" sheetId="11" r:id="rId11"/>
     <sheet name="Centre de recherche" sheetId="12" r:id="rId12"/>
+    <sheet name="Centre de recherche (2)" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
   <si>
     <t>Effets</t>
   </si>
@@ -148,6 +149,15 @@
   <si>
     <t>Reduction du temp des recherche</t>
   </si>
+  <si>
+    <t>Téléscope</t>
+  </si>
+  <si>
+    <t>Permet la découverte de nouvelle planète</t>
+  </si>
+  <si>
+    <t>Planète découverte</t>
+  </si>
 </sst>
 </file>
 
@@ -230,8 +240,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -397,7 +413,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="143">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -466,6 +482,9 @@
     <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -534,6 +553,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1979,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
@@ -3340,6 +3362,436 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="1:24" ht="60" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" t="str">
+        <f>"&lt;building id='"&amp;X1&amp;"'&gt;&lt;/building&gt;"</f>
+        <v>&lt;building id='18'&gt;&lt;/building&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="5" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:J5" si="0">TRUNC(1000*B4^2,-2)</f>
+        <v>1000</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>49000</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>81000</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" ref="B6:K6" si="1">TRUNC(B5/2,-2)</f>
+        <v>500</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>24500</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>40500</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" ref="B7:K7" si="2">B5</f>
+        <v>1000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>36000</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>49000</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>81000</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:J8" si="3">B4^2*100</f>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>4900</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="2"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="30">
+      <c r="A10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="390">
+      <c r="B12" s="9" t="str">
+        <f t="shared" ref="B12:K12" si="4">"&lt;cout niveau='"&amp;B4&amp;"'&gt;&lt;pierre&gt;"&amp;B5&amp;"&lt;/pierre&gt;&lt;metal&gt;"&amp;B6&amp;"&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;"&amp;B7&amp;"&lt;/argent&gt;&lt;time&gt;"&amp;B8&amp;"&lt;/time&gt;&lt;/cout&gt;"</f>
+        <v>&lt;cout niveau='1'&gt;&lt;pierre&gt;1000&lt;/pierre&gt;&lt;metal&gt;500&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;1000&lt;/argent&gt;&lt;time&gt;100&lt;/time&gt;&lt;/cout&gt;</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;cout niveau='2'&gt;&lt;pierre&gt;4000&lt;/pierre&gt;&lt;metal&gt;2000&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;4000&lt;/argent&gt;&lt;time&gt;400&lt;/time&gt;&lt;/cout&gt;</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;cout niveau='3'&gt;&lt;pierre&gt;9000&lt;/pierre&gt;&lt;metal&gt;4500&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;9000&lt;/argent&gt;&lt;time&gt;900&lt;/time&gt;&lt;/cout&gt;</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;cout niveau='4'&gt;&lt;pierre&gt;16000&lt;/pierre&gt;&lt;metal&gt;8000&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;16000&lt;/argent&gt;&lt;time&gt;1600&lt;/time&gt;&lt;/cout&gt;</v>
+      </c>
+      <c r="F12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;cout niveau='5'&gt;&lt;pierre&gt;25000&lt;/pierre&gt;&lt;metal&gt;12500&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;25000&lt;/argent&gt;&lt;time&gt;2500&lt;/time&gt;&lt;/cout&gt;</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;cout niveau='6'&gt;&lt;pierre&gt;36000&lt;/pierre&gt;&lt;metal&gt;18000&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;36000&lt;/argent&gt;&lt;time&gt;3600&lt;/time&gt;&lt;/cout&gt;</v>
+      </c>
+      <c r="H12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;cout niveau='7'&gt;&lt;pierre&gt;49000&lt;/pierre&gt;&lt;metal&gt;24500&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;49000&lt;/argent&gt;&lt;time&gt;4900&lt;/time&gt;&lt;/cout&gt;</v>
+      </c>
+      <c r="I12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;cout niveau='8'&gt;&lt;pierre&gt;64000&lt;/pierre&gt;&lt;metal&gt;32000&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;64000&lt;/argent&gt;&lt;time&gt;6400&lt;/time&gt;&lt;/cout&gt;</v>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;cout niveau='9'&gt;&lt;pierre&gt;81000&lt;/pierre&gt;&lt;metal&gt;40500&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;81000&lt;/argent&gt;&lt;time&gt;8100&lt;/time&gt;&lt;/cout&gt;</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:W2"/>
+    <mergeCell ref="A3:W3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X11"/>

--- a/data/batiment.xlsx
+++ b/data/batiment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19240" tabRatio="500" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19600" tabRatio="888" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Fabrique de lanceur" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Base de lancement" sheetId="10" r:id="rId10"/>
     <sheet name="Bureau de relation gouvernement" sheetId="11" r:id="rId11"/>
     <sheet name="Centre de recherche" sheetId="12" r:id="rId12"/>
-    <sheet name="Centre de recherche (2)" sheetId="13" r:id="rId13"/>
+    <sheet name="Téléscope" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -1630,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2906,7 +2906,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3367,7 +3367,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:J12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3570,7 +3570,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:K6" si="1">TRUNC(B5/2,-2)</f>
+        <f t="shared" ref="B6:J6" si="1">TRUNC(B5/2,-2)</f>
         <v>500</v>
       </c>
       <c r="C6" s="3">
@@ -3624,7 +3624,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ref="B7:K7" si="2">B5</f>
+        <f t="shared" ref="B7:J7" si="2">B5</f>
         <v>1000</v>
       </c>
       <c r="C7" s="3">
@@ -3738,9 +3738,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="390">
+    <row r="12" spans="1:24" ht="375">
       <c r="B12" s="9" t="str">
-        <f t="shared" ref="B12:K12" si="4">"&lt;cout niveau='"&amp;B4&amp;"'&gt;&lt;pierre&gt;"&amp;B5&amp;"&lt;/pierre&gt;&lt;metal&gt;"&amp;B6&amp;"&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;"&amp;B7&amp;"&lt;/argent&gt;&lt;time&gt;"&amp;B8&amp;"&lt;/time&gt;&lt;/cout&gt;"</f>
+        <f t="shared" ref="B12:J12" si="4">"&lt;cout niveau='"&amp;B4&amp;"'&gt;&lt;pierre&gt;"&amp;B5&amp;"&lt;/pierre&gt;&lt;metal&gt;"&amp;B6&amp;"&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;"&amp;B7&amp;"&lt;/argent&gt;&lt;time&gt;"&amp;B8&amp;"&lt;/time&gt;&lt;/cout&gt;"</f>
         <v>&lt;cout niveau='1'&gt;&lt;pierre&gt;1000&lt;/pierre&gt;&lt;metal&gt;500&lt;/metal&gt;&lt;oxygene&gt;0&lt;/oxygene&gt;&lt;carburant&gt;0&lt;/carburant&gt;&lt;argent&gt;1000&lt;/argent&gt;&lt;time&gt;100&lt;/time&gt;&lt;/cout&gt;</v>
       </c>
       <c r="C12" s="9" t="str">
@@ -3783,7 +3783,6 @@
     <mergeCell ref="A3:W3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6028,7 +6027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:W14"/>
     </sheetView>
   </sheetViews>
@@ -8744,7 +8743,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:W14"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9648,8 +9647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:W20"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
